--- a/data/trans_bre/P16A_n_R3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A_n_R3-Edad-trans_bre.xlsx
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3835949617828576</v>
+        <v>-0.3857126085133106</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
@@ -684,14 +684,14 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6129695043308546</v>
+        <v>0.610463853144894</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.437476356401531</v>
+        <v>1.660329126994972</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>3.420054165128938</v>
+        <v>3.388900566679612</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -742,16 +742,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2399729251312674</v>
+        <v>-0.2093997314131952</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.096565034551552</v>
+        <v>-1.142826347223693</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.1648317933340798</v>
+        <v>-0.163828448289689</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.259953806432173</v>
+        <v>-1.318126020199113</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7462473211684106</v>
+        <v>0.8680190243287635</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8854027000784821</v>
+        <v>0.8788053559349899</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.170269892367311</v>
+        <v>1.179512417586955</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.688358566933857</v>
+        <v>0.615199691661906</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>0.2839423816415693</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7053110030363238</v>
+        <v>0.7053110030363239</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.107691844133718</v>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6784613093910159</v>
+        <v>0.6784613093910161</v>
       </c>
     </row>
     <row r="11">
@@ -828,24 +828,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2729432522174536</v>
+        <v>-0.2803334790468599</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3158823305129638</v>
+        <v>-0.5697328541079192</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.5599047557328455</v>
-      </c>
-      <c r="G11" s="6" t="inlineStr"/>
+        <v>-0.7925871064482639</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.7151146073195374</v>
+      </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4547424839673578</v>
+        <v>-0.5525861749461244</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.4054757572326922</v>
+        <v>-0.433818273672038</v>
       </c>
     </row>
     <row r="12">
@@ -856,24 +858,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.486383574715257</v>
+        <v>1.545141030883039</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.08627824891963</v>
+        <v>1.867105182993594</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9851853781863364</v>
+        <v>0.8635250611955797</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.935119412715318</v>
+        <v>1.938529600113474</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>7.253301342154773</v>
+        <v>7.181070911680042</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>4.09623732823873</v>
+        <v>5.25897749026328</v>
       </c>
     </row>
     <row r="13">
@@ -909,7 +911,7 @@
         <v>15.75212493825097</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6517206342554569</v>
+        <v>0.651720634255457</v>
       </c>
     </row>
     <row r="14">
@@ -920,26 +922,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.367742136236963</v>
+        <v>-0.2864408347229446</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07927749379858955</v>
+        <v>0.01602442457996991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.403129897697765</v>
+        <v>1.380907207311132</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2838189571014103</v>
+        <v>0.1111752039199375</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5194703359357036</v>
+        <v>-0.3488381578477086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1804553848087173</v>
+        <v>-0.147051863877789</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>0.01378765558267873</v>
+        <v>0.00332227587598227</v>
       </c>
     </row>
     <row r="15">
@@ -950,26 +952,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.699540821296318</v>
+        <v>2.643965413014153</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.246150002620031</v>
+        <v>3.120449892439503</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.192999709831609</v>
+        <v>4.099705010479436</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.071034640038451</v>
+        <v>3.9157897342623</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11.49739436938003</v>
+        <v>8.48197849802844</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8.999434542711336</v>
+        <v>7.218585551159765</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>1.719679990804776</v>
+        <v>1.661886077482942</v>
       </c>
     </row>
     <row r="16">
@@ -993,7 +995,7 @@
         <v>4.004361395887393</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.21560096051472</v>
+        <v>5.215600960514723</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.701778258438258</v>
@@ -1005,7 +1007,7 @@
         <v>1.573424746693987</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.8795795783599238</v>
+        <v>0.8795795783599244</v>
       </c>
     </row>
     <row r="17">
@@ -1016,28 +1018,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7899108510617453</v>
+        <v>0.5804773891918515</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.333434501798976</v>
+        <v>3.35754988528353</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.211747290407374</v>
+        <v>1.34348754707241</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.723655260599936</v>
+        <v>2.618950943274641</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09763851222691419</v>
+        <v>0.04241697403992693</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.45298052121629</v>
+        <v>1.372313352753539</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1955168616221792</v>
+        <v>0.2324265073698613</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3580644381043456</v>
+        <v>0.3353689308607231</v>
       </c>
     </row>
     <row r="18">
@@ -1048,28 +1050,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.025810512427551</v>
+        <v>5.543757606845364</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.248142756728869</v>
+        <v>8.299060397807073</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.9546483129404</v>
+        <v>6.954640184794593</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.073404714720478</v>
+        <v>7.839235809456968</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6.642644203454851</v>
+        <v>5.621439026314707</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>25.35445106663073</v>
+        <v>24.29610701775914</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.857912451669739</v>
+        <v>4.921635345876489</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.708136994264069</v>
+        <v>1.729013831175463</v>
       </c>
     </row>
     <row r="19">
@@ -1116,28 +1118,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.309951912639757</v>
+        <v>-0.2501129765333286</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.17134673778878</v>
+        <v>3.281985215267615</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7745932320491653</v>
+        <v>0.678878592516815</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5.057564066951412</v>
+        <v>4.996809463395257</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1412834365022883</v>
+        <v>-0.1227036147588191</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3838846500976776</v>
+        <v>0.3524677859575111</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07458735344753764</v>
+        <v>0.06223238645043355</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4184076280341736</v>
+        <v>0.3931764969685217</v>
       </c>
     </row>
     <row r="21">
@@ -1148,28 +1150,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.309111855604776</v>
+        <v>6.588080145405968</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.49357542990727</v>
+        <v>12.5084370661595</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.962862208624916</v>
+        <v>9.031376837598328</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12.1886002346553</v>
+        <v>12.21211646176482</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.379308084775498</v>
+        <v>2.585177274259456</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.276138628527839</v>
+        <v>4.034284425772316</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.084971940301509</v>
+        <v>2.000081860838506</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.454821638063535</v>
+        <v>1.481554405967642</v>
       </c>
     </row>
     <row r="22">
@@ -1193,7 +1195,7 @@
         <v>5.642504326503932</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13.87527438089017</v>
+        <v>13.87527438089016</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.251428264965678</v>
@@ -1205,7 +1207,7 @@
         <v>0.672577661176311</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.7419781973735678</v>
+        <v>0.7419781973735672</v>
       </c>
     </row>
     <row r="23">
@@ -1216,28 +1218,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.757352123111813</v>
+        <v>-7.443115109055358</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8040363950748303</v>
+        <v>1.06849702518685</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1562823054815488</v>
+        <v>0.2810451038010247</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.922046621621638</v>
+        <v>8.622599689471343</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6054861727252742</v>
+        <v>-0.6015058236330176</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04232122862973075</v>
+        <v>0.06573701215862601</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.01208920958400635</v>
+        <v>-0.01210450439903502</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.4236580521887341</v>
+        <v>0.3991237150774863</v>
       </c>
     </row>
     <row r="24">
@@ -1248,28 +1250,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.006506084168865</v>
+        <v>2.170448393968258</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.79266411283791</v>
+        <v>13.10794900512094</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.47698871583907</v>
+        <v>10.40286999941262</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.69244675209874</v>
+        <v>18.35903627556926</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3335514405121743</v>
+        <v>0.3377258161040225</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.699430870047093</v>
+        <v>1.82921236998197</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.663158629069153</v>
+        <v>1.651673621734551</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.209583859503905</v>
+        <v>1.194157975490944</v>
       </c>
     </row>
     <row r="25">
@@ -1293,7 +1295,7 @@
         <v>2.664944335383276</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.803970876754051</v>
+        <v>4.803970876754052</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7413116424889485</v>
@@ -1305,7 +1307,7 @@
         <v>1.607764179158136</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>1.013726382682455</v>
+        <v>1.013726382682456</v>
       </c>
     </row>
     <row r="26">
@@ -1316,28 +1318,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4370385055287844</v>
+        <v>0.4331567837319616</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.234066295793484</v>
+        <v>2.28876420943865</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.813085961400754</v>
+        <v>1.898942447871949</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.781352128451561</v>
+        <v>3.824989372939509</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2314395544178215</v>
+        <v>0.2392423191059002</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9498400735249108</v>
+        <v>1.037864303163798</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8648178125621229</v>
+        <v>0.9509915547568483</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.717284186816079</v>
+        <v>0.7445915977346736</v>
       </c>
     </row>
     <row r="27">
@@ -1348,28 +1350,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.856095240222057</v>
+        <v>1.791963914232418</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.098865014436468</v>
+        <v>4.145283943500021</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.520249547172828</v>
+        <v>3.558512711702903</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.713471148169239</v>
+        <v>5.788112867287217</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.57881662039282</v>
+        <v>1.563372820555463</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.825000434649349</v>
+        <v>2.962711202679387</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.547173991484649</v>
+        <v>2.705564374861009</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.337324330260659</v>
+        <v>1.381975486532008</v>
       </c>
     </row>
     <row r="28">
